--- a/Nita Doc/Dokumentasi.xlsx
+++ b/Nita Doc/Dokumentasi.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="7365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kode Table" sheetId="1" r:id="rId1"/>
     <sheet name="Transaksi" sheetId="2" r:id="rId2"/>
     <sheet name="Master" sheetId="3" r:id="rId3"/>
+    <sheet name="Saldo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Kode</t>
   </si>
@@ -124,6 +125,18 @@
   </si>
   <si>
     <t>Maskapai</t>
+  </si>
+  <si>
+    <t>BLNC001</t>
+  </si>
+  <si>
+    <t>Saldo Pemesanan tiket</t>
+  </si>
+  <si>
+    <t>BLNC002</t>
+  </si>
+  <si>
+    <t>Detail Saldo Pemesanan tiket</t>
   </si>
 </sst>
 </file>
@@ -599,7 +612,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -697,4 +710,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Nita Doc/Dokumentasi.xlsx
+++ b/Nita Doc/Dokumentasi.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kode Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Transaksi" sheetId="2" r:id="rId2"/>
-    <sheet name="Master" sheetId="3" r:id="rId3"/>
-    <sheet name="Saldo" sheetId="4" r:id="rId4"/>
+    <sheet name="Master" sheetId="3" r:id="rId2"/>
+    <sheet name="Visitor" sheetId="5" r:id="rId3"/>
+    <sheet name="Tour" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Kode</t>
   </si>
@@ -31,112 +31,79 @@
     <t>MST001</t>
   </si>
   <si>
-    <t>BKTRX001</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>MST002</t>
-  </si>
-  <si>
-    <t>User Detail Penumpang</t>
-  </si>
-  <si>
-    <t>MST003</t>
-  </si>
-  <si>
-    <t>User Detail Alamat</t>
-  </si>
-  <si>
-    <t>MST010</t>
-  </si>
-  <si>
-    <t>Header Pemesanan</t>
-  </si>
-  <si>
     <t>MST</t>
   </si>
   <si>
-    <t>Transaksi</t>
-  </si>
-  <si>
-    <t>TRX</t>
-  </si>
-  <si>
-    <t>Log/History</t>
-  </si>
-  <si>
-    <t>HST</t>
-  </si>
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>Pemesanan</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>Pembayaran</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>HOTEL</t>
-  </si>
-  <si>
-    <t>HTL</t>
-  </si>
-  <si>
-    <t>Pesawat</t>
-  </si>
-  <si>
-    <t>FLG</t>
-  </si>
-  <si>
     <t>Contoh penamaan</t>
   </si>
   <si>
-    <t>Transaksi pmesanan</t>
-  </si>
-  <si>
-    <t>BKTRX002</t>
-  </si>
-  <si>
-    <t>Detail Pemesanan Pesawat</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>BLNC</t>
-  </si>
-  <si>
-    <t>Airport</t>
-  </si>
-  <si>
-    <t>MST020</t>
-  </si>
-  <si>
-    <t>Maskapai</t>
-  </si>
-  <si>
-    <t>BLNC001</t>
-  </si>
-  <si>
-    <t>Saldo Pemesanan tiket</t>
-  </si>
-  <si>
-    <t>BLNC002</t>
-  </si>
-  <si>
-    <t>Detail Saldo Pemesanan tiket</t>
+    <t>TOUR</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Master user</t>
+  </si>
+  <si>
+    <t>TR001</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>VST001</t>
+  </si>
+  <si>
+    <t>Master visitor profile</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>VST010</t>
+  </si>
+  <si>
+    <t>List Tour Fav</t>
+  </si>
+  <si>
+    <t>VST020</t>
+  </si>
+  <si>
+    <t>My Trip - Photo Album</t>
+  </si>
+  <si>
+    <t>VST030</t>
+  </si>
+  <si>
+    <t>My Trip - Itenary</t>
+  </si>
+  <si>
+    <t>TR020</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>TR030</t>
+  </si>
+  <si>
+    <t>Photo/video</t>
+  </si>
+  <si>
+    <t>TR040</t>
+  </si>
+  <si>
+    <t>Package</t>
   </si>
 </sst>
 </file>
@@ -501,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -519,87 +486,54 @@
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="10" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -609,49 +543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -672,40 +567,86 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -714,16 +655,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -734,20 +672,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nita Doc/Dokumentasi.xlsx
+++ b/Nita Doc/Dokumentasi.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kode Table" sheetId="1" r:id="rId1"/>
     <sheet name="Master" sheetId="3" r:id="rId2"/>
-    <sheet name="Visitor" sheetId="5" r:id="rId3"/>
-    <sheet name="Tour" sheetId="6" r:id="rId4"/>
+    <sheet name="Hotel" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Kode</t>
   </si>
@@ -43,67 +42,73 @@
     <t>Contoh penamaan</t>
   </si>
   <si>
-    <t>TOUR</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>Master user</t>
   </si>
   <si>
-    <t>TR001</t>
-  </si>
-  <si>
-    <t>Visitor</t>
-  </si>
-  <si>
-    <t>VST</t>
-  </si>
-  <si>
     <t>VST001</t>
   </si>
   <si>
     <t>Master visitor profile</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>VST010</t>
-  </si>
-  <si>
-    <t>List Tour Fav</t>
-  </si>
-  <si>
-    <t>VST020</t>
-  </si>
-  <si>
-    <t>My Trip - Photo Album</t>
-  </si>
-  <si>
-    <t>VST030</t>
-  </si>
-  <si>
-    <t>My Trip - Itenary</t>
-  </si>
-  <si>
-    <t>TR020</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>TR030</t>
-  </si>
-  <si>
-    <t>Photo/video</t>
-  </si>
-  <si>
-    <t>TR040</t>
-  </si>
-  <si>
-    <t>Package</t>
+    <t>FLTRX</t>
+  </si>
+  <si>
+    <t>Transaksi Penerbangan</t>
+  </si>
+  <si>
+    <t>Transaksi Hotel</t>
+  </si>
+  <si>
+    <t>HTTRX</t>
+  </si>
+  <si>
+    <t>MST002</t>
+  </si>
+  <si>
+    <t>Detail Penumpang</t>
+  </si>
+  <si>
+    <t>MST003</t>
+  </si>
+  <si>
+    <t>Detil Kontak User</t>
+  </si>
+  <si>
+    <t>MST010</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>MST020</t>
+  </si>
+  <si>
+    <t>Maskapai</t>
+  </si>
+  <si>
+    <t>HTTRX001</t>
+  </si>
+  <si>
+    <t>Pemesanan Hotel</t>
+  </si>
+  <si>
+    <t>HTTRX002</t>
+  </si>
+  <si>
+    <t>Detail Pemesanan Hotel</t>
+  </si>
+  <si>
+    <t>MST030</t>
+  </si>
+  <si>
+    <t>Valuta</t>
+  </si>
+  <si>
+    <t>MST031</t>
+  </si>
+  <si>
+    <t>Kurs</t>
   </si>
 </sst>
 </file>
@@ -134,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,16 +162,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,12 +522,13 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -494,18 +546,18 @@
     </row>
     <row r="5" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -525,15 +577,15 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,20 +623,52 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,13 +679,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -614,94 +699,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>

--- a/Nita Doc/Dokumentasi.xlsx
+++ b/Nita Doc/Dokumentasi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Kode</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Kurs</t>
+  </si>
+  <si>
+    <t>Batal Pemesanan Hotel</t>
+  </si>
+  <si>
+    <t>HTTRX020</t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -714,8 +720,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>

--- a/Nita Doc/Dokumentasi.xlsx
+++ b/Nita Doc/Dokumentasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kode Table" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Kode</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>HTTRX020</t>
+  </si>
+  <si>
+    <t>MST040</t>
+  </si>
+  <si>
+    <t>Negara</t>
+  </si>
+  <si>
+    <t>MST041</t>
+  </si>
+  <si>
+    <t>Kota</t>
   </si>
 </sst>
 </file>
@@ -601,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -676,6 +688,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -685,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
